--- a/Bolt4/Bolt4NoSF8mm.xlsx
+++ b/Bolt4/Bolt4NoSF8mm.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Structural Engineering\Bolt Analysis\Bolt4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E77639-537A-48A8-B9EE-A5E30CDB520F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A501A81C-A49F-43BB-950F-76C694526C18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{CCA8CB39-6141-4BF7-BCB2-A7DE61C1D9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="xyToExcel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -75,164 +72,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="NoSFfem"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1">
-            <v>0</v>
-          </cell>
-          <cell r="B1">
-            <v>-0.34048200000000001</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>0.04</v>
-          </cell>
-          <cell r="B2">
-            <v>5.7851600000000003</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="B3">
-            <v>9.7163799999999991</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>0.1</v>
-          </cell>
-          <cell r="B4">
-            <v>13.34642</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>0.14499999999999999</v>
-          </cell>
-          <cell r="B5">
-            <v>18.382300000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>0.21249999999999999</v>
-          </cell>
-          <cell r="B6">
-            <v>25.545999999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>0.31374999999999997</v>
-          </cell>
-          <cell r="B7">
-            <v>35.7776</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>0.46562500000000001</v>
-          </cell>
-          <cell r="B8">
-            <v>50.104799999999997</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>0.693438</v>
-          </cell>
-          <cell r="B9">
-            <v>67.861199999999997</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1.0351600000000001</v>
-          </cell>
-          <cell r="B10">
-            <v>84.967799999999997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1.43516</v>
-          </cell>
-          <cell r="B11">
-            <v>96.146199999999993</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1.8351599999999999</v>
-          </cell>
-          <cell r="B12">
-            <v>103.2204</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2.23516</v>
-          </cell>
-          <cell r="B13">
-            <v>108.13679999999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2.6351599999999999</v>
-          </cell>
-          <cell r="B14">
-            <v>111.5506</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>3.0351599999999999</v>
-          </cell>
-          <cell r="B15">
-            <v>113.8832</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>3.4351600000000002</v>
-          </cell>
-          <cell r="B16">
-            <v>115.572</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>3.8351600000000001</v>
-          </cell>
-          <cell r="B17">
-            <v>117.03400000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>4</v>
-          </cell>
-          <cell r="B18">
-            <v>117.6216</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
